--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>496.7006688154206</v>
+        <v>557.5934205377908</v>
       </c>
       <c r="AB2" t="n">
-        <v>679.6077679602336</v>
+        <v>762.9239172653899</v>
       </c>
       <c r="AC2" t="n">
-        <v>614.7469564216011</v>
+        <v>690.1115293720233</v>
       </c>
       <c r="AD2" t="n">
-        <v>496700.6688154205</v>
+        <v>557593.4205377909</v>
       </c>
       <c r="AE2" t="n">
-        <v>679607.7679602336</v>
+        <v>762923.9172653899</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.506647684258905e-06</v>
+        <v>2.787692677982571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>614746.9564216011</v>
+        <v>690111.5293720233</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.0183447331344</v>
+        <v>331.6052360827201</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.6571145546721</v>
+        <v>453.7169133989039</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.1326460778919</v>
+        <v>410.4148079797992</v>
       </c>
       <c r="AD3" t="n">
-        <v>295018.3447331344</v>
+        <v>331605.23608272</v>
       </c>
       <c r="AE3" t="n">
-        <v>403657.1145546722</v>
+        <v>453716.9133989039</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.109506327859294e-06</v>
+        <v>3.903139005735008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.204861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>365132.6460778919</v>
+        <v>410414.8079797992</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.2839384476758</v>
+        <v>278.9560811432849</v>
       </c>
       <c r="AB4" t="n">
-        <v>331.5035733969407</v>
+        <v>381.6800168939821</v>
       </c>
       <c r="AC4" t="n">
-        <v>299.8653376202227</v>
+        <v>345.2530117728878</v>
       </c>
       <c r="AD4" t="n">
-        <v>242283.9384476758</v>
+        <v>278956.0811432849</v>
       </c>
       <c r="AE4" t="n">
-        <v>331503.5733969407</v>
+        <v>381680.0168939821</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324831742857255e-06</v>
+        <v>4.301547398781876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>299865.3376202227</v>
+        <v>345253.0117728878</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>240.8515976111197</v>
+        <v>277.5237403067288</v>
       </c>
       <c r="AB5" t="n">
-        <v>329.5437814739475</v>
+        <v>379.720224970988</v>
       </c>
       <c r="AC5" t="n">
-        <v>298.0925854877742</v>
+        <v>343.480259640439</v>
       </c>
       <c r="AD5" t="n">
-        <v>240851.5976111197</v>
+        <v>277523.7403067288</v>
       </c>
       <c r="AE5" t="n">
-        <v>329543.7814739476</v>
+        <v>379720.224970988</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.337016010242506e-06</v>
+        <v>4.324091483461602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.501736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>298092.5854877742</v>
+        <v>343480.2596404391</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.5831535599616</v>
+        <v>423.3163733689761</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.8387549743045</v>
+        <v>579.2001374437835</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.2302843241459</v>
+        <v>523.9220892386465</v>
       </c>
       <c r="AD2" t="n">
-        <v>364583.1535599616</v>
+        <v>423316.3733689762</v>
       </c>
       <c r="AE2" t="n">
-        <v>498838.7549743045</v>
+        <v>579200.1374437836</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.792766283536718e-06</v>
+        <v>3.417289218341699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.77025462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>451230.2843241459</v>
+        <v>523922.0892386466</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.0908812227756</v>
+        <v>277.0603888990757</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.8204945821203</v>
+        <v>379.0862471334158</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.7744684326353</v>
+        <v>342.9067877578912</v>
       </c>
       <c r="AD3" t="n">
-        <v>230090.8812227756</v>
+        <v>277060.3888990757</v>
       </c>
       <c r="AE3" t="n">
-        <v>314820.4945821203</v>
+        <v>379086.2471334158</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.360455685823983e-06</v>
+        <v>4.499392831968356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.66087962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>284774.4684326353</v>
+        <v>342906.7877578912</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.5887762935988</v>
+        <v>260.9652535463248</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.660515999172</v>
+        <v>357.0641728765243</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.2023895600574</v>
+        <v>322.9864693599021</v>
       </c>
       <c r="AD4" t="n">
-        <v>225588.7762935988</v>
+        <v>260965.2535463248</v>
       </c>
       <c r="AE4" t="n">
-        <v>308660.515999172</v>
+        <v>357064.1728765243</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.394737627908705e-06</v>
+        <v>4.564739504396188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.565393518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>279202.3895600574</v>
+        <v>322986.4693599021</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.2967493623806</v>
+        <v>236.6871663445039</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.8960695308465</v>
+        <v>323.8458228932257</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.0877428950148</v>
+        <v>292.9384320768595</v>
       </c>
       <c r="AD2" t="n">
-        <v>205296.7493623806</v>
+        <v>236687.1663445039</v>
       </c>
       <c r="AE2" t="n">
-        <v>280896.0695308466</v>
+        <v>323845.8228932257</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425984853013089e-06</v>
+        <v>5.166712849563355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>254087.7428950148</v>
+        <v>292938.4320768595</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.2863758820873</v>
+        <v>260.2018535292422</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.983246648949</v>
+        <v>356.01965529432</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.3034420565934</v>
+        <v>322.0416390697538</v>
       </c>
       <c r="AD2" t="n">
-        <v>227286.3758820873</v>
+        <v>260201.8535292422</v>
       </c>
       <c r="AE2" t="n">
-        <v>310983.246648949</v>
+        <v>356019.65529432</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.354442942979746e-06</v>
+        <v>4.780333179721243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.126736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>281303.4420565934</v>
+        <v>322041.6390697538</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.6968332529688</v>
+        <v>248.498676583198</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.0752378435189</v>
+        <v>340.0068522888542</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.3452502318809</v>
+        <v>307.5570755091215</v>
       </c>
       <c r="AD3" t="n">
-        <v>204696.8332529688</v>
+        <v>248498.676583198</v>
       </c>
       <c r="AE3" t="n">
-        <v>280075.237843519</v>
+        <v>340006.8522888542</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.447643992574988e-06</v>
+        <v>4.969563532953386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.854745370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>253345.2502318809</v>
+        <v>307557.0755091215</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.3518622300172</v>
+        <v>240.5378154179907</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.1302568033266</v>
+        <v>329.1144508342154</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.9676498383294</v>
+        <v>297.7042295617286</v>
       </c>
       <c r="AD2" t="n">
-        <v>200351.8622300173</v>
+        <v>240537.8154179907</v>
       </c>
       <c r="AE2" t="n">
-        <v>274130.2568033267</v>
+        <v>329114.4508342154</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.349589363861244e-06</v>
+        <v>5.232076582029511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.75462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>247967.6498383294</v>
+        <v>297704.2295617286</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.2648271604653</v>
+        <v>449.7738379793837</v>
       </c>
       <c r="AB2" t="n">
-        <v>550.3964831926266</v>
+        <v>615.4004077447034</v>
       </c>
       <c r="AC2" t="n">
-        <v>497.8674153230374</v>
+        <v>556.6674565494452</v>
       </c>
       <c r="AD2" t="n">
-        <v>402264.8271604653</v>
+        <v>449773.8379793837</v>
       </c>
       <c r="AE2" t="n">
-        <v>550396.4831926266</v>
+        <v>615400.4077447035</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.711944503243923e-06</v>
+        <v>3.236882469432166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.10011574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>497867.4153230374</v>
+        <v>556667.4565494452</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.2028721218711</v>
+        <v>289.6264525776699</v>
       </c>
       <c r="AB3" t="n">
-        <v>331.3926548735809</v>
+        <v>396.2796898340719</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.7650050050573</v>
+        <v>358.4593124183451</v>
       </c>
       <c r="AD3" t="n">
-        <v>242202.8721218711</v>
+        <v>289626.4525776699</v>
       </c>
       <c r="AE3" t="n">
-        <v>331392.6548735809</v>
+        <v>396279.6898340719</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.298224654703952e-06</v>
+        <v>4.345399679447477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>299765.0050050573</v>
+        <v>358459.3124183451</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.6417536296527</v>
+        <v>265.3587854670026</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.2059783950989</v>
+        <v>363.0755970793442</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.2186008080241</v>
+        <v>328.4241716738918</v>
       </c>
       <c r="AD4" t="n">
-        <v>229641.7536296527</v>
+        <v>265358.7854670027</v>
       </c>
       <c r="AE4" t="n">
-        <v>314205.9783950989</v>
+        <v>363075.5970793442</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.37667172795928e-06</v>
+        <v>4.493724555468444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.553819444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>284218.6008080241</v>
+        <v>328424.1716738918</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.863247227511</v>
+        <v>248.9763518206849</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.1441533695823</v>
+        <v>340.6604286223276</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.7395183814243</v>
+        <v>308.1482754346287</v>
       </c>
       <c r="AD2" t="n">
-        <v>209863.247227511</v>
+        <v>248976.3518206849</v>
       </c>
       <c r="AE2" t="n">
-        <v>287144.1533695823</v>
+        <v>340660.4286223276</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.262318603108738e-06</v>
+        <v>5.186516403285906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.240740740740742</v>
       </c>
       <c r="AH2" t="n">
-        <v>259739.5183814243</v>
+        <v>308148.2754346287</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.0071634225257</v>
+        <v>331.5883260891536</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.327618740235</v>
+        <v>453.6937763996902</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.9798600394287</v>
+        <v>410.3938791433174</v>
       </c>
       <c r="AD2" t="n">
-        <v>286007.1634225257</v>
+        <v>331588.3260891536</v>
       </c>
       <c r="AE2" t="n">
-        <v>391327.618740235</v>
+        <v>453693.7763996902</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.049738880766404e-06</v>
+        <v>4.01745987904573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.902199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>353979.8600394287</v>
+        <v>410393.8791433174</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.9097054115328</v>
+        <v>260.4055272235918</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.0489400909799</v>
+        <v>356.2983306283783</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.9853219490629</v>
+        <v>322.2937180210529</v>
       </c>
       <c r="AD3" t="n">
-        <v>214909.7054115328</v>
+        <v>260405.5272235918</v>
       </c>
       <c r="AE3" t="n">
-        <v>294048.9400909799</v>
+        <v>356298.3306283783</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426571098400339e-06</v>
+        <v>4.756045817811798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>265985.3219490629</v>
+        <v>322293.7180210529</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.4440501704244</v>
+        <v>388.9423078884221</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.5470570084307</v>
+        <v>532.1680245765482</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.8295834974701</v>
+        <v>481.378655213475</v>
       </c>
       <c r="AD2" t="n">
-        <v>342444.0501704244</v>
+        <v>388942.3078884221</v>
       </c>
       <c r="AE2" t="n">
-        <v>468547.0570084307</v>
+        <v>532168.0245765481</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.867985875899406e-06</v>
+        <v>3.591582199300579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.49537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>423829.5834974701</v>
+        <v>481378.6552134751</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.9892534566195</v>
+        <v>268.4874216660689</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.7354900538795</v>
+        <v>367.3563351525944</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.7474011786646</v>
+        <v>332.2963621134846</v>
       </c>
       <c r="AD3" t="n">
-        <v>221989.2534566195</v>
+        <v>268487.421666069</v>
       </c>
       <c r="AE3" t="n">
-        <v>303735.4900538794</v>
+        <v>367356.3351525944</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.403443349882961e-06</v>
+        <v>4.621107934400598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.60300925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>274747.4011786646</v>
+        <v>332296.3621134846</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.0104882619353</v>
+        <v>257.0334609145202</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.7645444513259</v>
+        <v>351.684520739074</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.7736826651969</v>
+        <v>318.1202436721667</v>
       </c>
       <c r="AD4" t="n">
-        <v>222010.4882619353</v>
+        <v>257033.4609145201</v>
       </c>
       <c r="AE4" t="n">
-        <v>303764.5444513259</v>
+        <v>351684.520739074</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.407556768970205e-06</v>
+        <v>4.629016817954066e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.591435185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>274773.6826651969</v>
+        <v>318120.2436721667</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.8809349831544</v>
+        <v>516.3452121800021</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.7564072913671</v>
+        <v>706.4862988477415</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.2259712270943</v>
+        <v>639.0602380454604</v>
       </c>
       <c r="AD2" t="n">
-        <v>455880.9349831544</v>
+        <v>516345.2121800021</v>
       </c>
       <c r="AE2" t="n">
-        <v>623756.4072913671</v>
+        <v>706486.2988477416</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.571259540123415e-06</v>
+        <v>2.927137348832258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.748263888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>564225.9712270943</v>
+        <v>639060.2380454604</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.5218981469319</v>
+        <v>316.8005539735916</v>
       </c>
       <c r="AB3" t="n">
-        <v>383.8224367973428</v>
+        <v>433.460494200716</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.1909621275771</v>
+        <v>392.0916329998233</v>
       </c>
       <c r="AD3" t="n">
-        <v>280521.8981469319</v>
+        <v>316800.5539735916</v>
       </c>
       <c r="AE3" t="n">
-        <v>383822.4367973428</v>
+        <v>433460.494200716</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172743684690049e-06</v>
+        <v>4.047656689738295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>347190.962127577</v>
+        <v>392091.6329998233</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.6914555949246</v>
+        <v>273.0553627676078</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.8516916348797</v>
+        <v>373.6063936910584</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.9437407140469</v>
+        <v>337.9499238370498</v>
       </c>
       <c r="AD4" t="n">
-        <v>236691.4555949246</v>
+        <v>273055.3627676078</v>
       </c>
       <c r="AE4" t="n">
-        <v>323851.6916348797</v>
+        <v>373606.3936910584</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.349451489175476e-06</v>
+        <v>4.376849926839541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>292943.7407140469</v>
+        <v>337949.9238370498</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.1989821489262</v>
+        <v>273.5628893216094</v>
       </c>
       <c r="AB5" t="n">
-        <v>324.5461118565557</v>
+        <v>374.3008139127348</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.5718864443913</v>
+        <v>338.5780695673943</v>
       </c>
       <c r="AD5" t="n">
-        <v>237198.9821489262</v>
+        <v>273562.8893216094</v>
       </c>
       <c r="AE5" t="n">
-        <v>324546.1118565557</v>
+        <v>374300.8139127348</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.349980871453742e-06</v>
+        <v>4.377836125872199e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>293571.8864443913</v>
+        <v>338578.0695673943</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.5481195397835</v>
+        <v>289.8594612956306</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.9697699726667</v>
+        <v>396.5985026416049</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.9052866631091</v>
+        <v>358.7476981789837</v>
       </c>
       <c r="AD2" t="n">
-        <v>245548.1195397835</v>
+        <v>289859.4612956306</v>
       </c>
       <c r="AE2" t="n">
-        <v>335969.7699726666</v>
+        <v>396598.5026416049</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.250237403187873e-06</v>
+        <v>4.510594922731961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.36400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>303905.2866631091</v>
+        <v>358747.6981789838</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.7547397960178</v>
+        <v>252.1513328978818</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.259200481032</v>
+        <v>345.0045778024257</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.1299013474995</v>
+        <v>312.0778251140312</v>
       </c>
       <c r="AD3" t="n">
-        <v>207754.7397960178</v>
+        <v>252151.3328978818</v>
       </c>
       <c r="AE3" t="n">
-        <v>284259.200481032</v>
+        <v>345004.5778024257</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.447364407890544e-06</v>
+        <v>4.905735482250512e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>257129.9013474995</v>
+        <v>312077.8251140312</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.2769606420443</v>
+        <v>240.2127971712111</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.9737260813229</v>
+        <v>328.6697465301787</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.7762336273418</v>
+        <v>297.3019672123226</v>
       </c>
       <c r="AD2" t="n">
-        <v>208276.9606420443</v>
+        <v>240212.7971712111</v>
       </c>
       <c r="AE2" t="n">
-        <v>284973.7260813229</v>
+        <v>328669.7465301787</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.441064144203862e-06</v>
+        <v>5.106858848741166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.07175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>257776.2336273418</v>
+        <v>297301.9672123226</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.3312474611017</v>
+        <v>241.2670839902685</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.4162478190083</v>
+        <v>330.1122682678641</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.0810831149749</v>
+        <v>298.6068166999557</v>
       </c>
       <c r="AD3" t="n">
-        <v>209331.2474611017</v>
+        <v>241267.0839902685</v>
       </c>
       <c r="AE3" t="n">
-        <v>286416.2478190083</v>
+        <v>330112.2682678641</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.439990309837674e-06</v>
+        <v>5.104612320091737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>259081.0831149749</v>
+        <v>298606.8166999557</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.5218099169218</v>
+        <v>243.412758527905</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.0992749598834</v>
+        <v>333.0480748307367</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.6533090690685</v>
+        <v>301.2624340048991</v>
       </c>
       <c r="AD2" t="n">
-        <v>202521.8099169218</v>
+        <v>243412.758527905</v>
       </c>
       <c r="AE2" t="n">
-        <v>277099.2749598834</v>
+        <v>333048.0748307367</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397916467189716e-06</v>
+        <v>5.212724547835056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>250653.3090690685</v>
+        <v>301262.4340048991</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.1838621344033</v>
+        <v>259.2334610071193</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.6335181154662</v>
+        <v>354.6946579230885</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.750599895426</v>
+        <v>320.8430975879872</v>
       </c>
       <c r="AD2" t="n">
-        <v>221183.8621344033</v>
+        <v>259233.4610071193</v>
       </c>
       <c r="AE2" t="n">
-        <v>302633.5181154662</v>
+        <v>354694.6579230885</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.108250088989533e-06</v>
+        <v>5.014529682511508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.091435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>273750.599895426</v>
+        <v>320843.0975879872</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.9166299769021</v>
+        <v>364.9244038354958</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.35580274313</v>
+        <v>499.3056686561901</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.7106173585404</v>
+        <v>451.6526364195498</v>
       </c>
       <c r="AD2" t="n">
-        <v>318916.6299769021</v>
+        <v>364924.4038354958</v>
       </c>
       <c r="AE2" t="n">
-        <v>436355.80274313</v>
+        <v>499305.66865619</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.958644784027111e-06</v>
+        <v>3.800903359610715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH2" t="n">
-        <v>394710.6173585404</v>
+        <v>451652.6364195498</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.8386647925179</v>
+        <v>264.8463491425632</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.4247156494956</v>
+        <v>362.3744590931511</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.848041033224</v>
+        <v>327.7899493130476</v>
       </c>
       <c r="AD3" t="n">
-        <v>218838.6647925179</v>
+        <v>264846.3491425632</v>
       </c>
       <c r="AE3" t="n">
-        <v>299424.7156494956</v>
+        <v>362374.4590931511</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412314310348048e-06</v>
+        <v>4.681284550119829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.643518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>270848.041033224</v>
+        <v>327789.9493130476</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.3615912356403</v>
+        <v>265.3692755856857</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.1402066788619</v>
+        <v>363.0899501225178</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.4952466029457</v>
+        <v>328.4371548827694</v>
       </c>
       <c r="AD4" t="n">
-        <v>219361.5912356403</v>
+        <v>265369.2755856857</v>
       </c>
       <c r="AE4" t="n">
-        <v>300140.2066788619</v>
+        <v>363089.9501225178</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413366779334629e-06</v>
+        <v>4.683326948486089e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>271495.2466029457</v>
+        <v>328437.1548827694</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>428.2049993347969</v>
+        <v>487.9685606548271</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.8889711611757</v>
+        <v>667.6601123414858</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.972550053888</v>
+        <v>603.9395682864666</v>
       </c>
       <c r="AD2" t="n">
-        <v>428204.9993347969</v>
+        <v>487968.560654827</v>
       </c>
       <c r="AE2" t="n">
-        <v>585888.9711611758</v>
+        <v>667660.1123414858</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.64010958087251e-06</v>
+        <v>3.077488872658285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.418402777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>529972.550053888</v>
+        <v>603939.5682864666</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.6991966218594</v>
+        <v>303.5611785837889</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.8589214702703</v>
+        <v>415.3457967123679</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.4688770353324</v>
+        <v>375.7057768156256</v>
       </c>
       <c r="AD3" t="n">
-        <v>255699.1966218594</v>
+        <v>303561.1785837889</v>
       </c>
       <c r="AE3" t="n">
-        <v>349858.9214702703</v>
+        <v>415345.7967123679</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.231010220729917e-06</v>
+        <v>4.1862502415422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.924189814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>316468.8770353324</v>
+        <v>375705.7768156256</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.9066762110661</v>
+        <v>267.952509178014</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.3049453923193</v>
+        <v>366.6244442877642</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.0218067444583</v>
+        <v>331.6343218855785</v>
       </c>
       <c r="AD4" t="n">
-        <v>231906.6762110661</v>
+        <v>267952.509178014</v>
       </c>
       <c r="AE4" t="n">
-        <v>317304.9453923194</v>
+        <v>366624.4442877641</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.371395828934523e-06</v>
+        <v>4.449668705875056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.513310185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>287021.8067444583</v>
+        <v>331634.3218855785</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.7180484680328</v>
+        <v>268.7638814349806</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.4151007095183</v>
+        <v>367.7345996049636</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.026010396297</v>
+        <v>332.6385255374173</v>
       </c>
       <c r="AD5" t="n">
-        <v>232718.0484680328</v>
+        <v>268763.8814349807</v>
       </c>
       <c r="AE5" t="n">
-        <v>318415.1007095183</v>
+        <v>367734.5996049637</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.37112893614326e-06</v>
+        <v>4.449167910315487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.513310185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>288026.010396297</v>
+        <v>332638.5255374173</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.32916189531</v>
+        <v>294.2049788201417</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.4607177624543</v>
+        <v>402.5442314293438</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.2083264533069</v>
+        <v>364.1259749561036</v>
       </c>
       <c r="AD2" t="n">
-        <v>239329.16189531</v>
+        <v>294204.9788201416</v>
       </c>
       <c r="AE2" t="n">
-        <v>327460.7177624543</v>
+        <v>402544.2314293438</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.807645182757681e-06</v>
+        <v>4.520783420730622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.97800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>296208.3264533069</v>
+        <v>364125.9749561036</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.8045044741415</v>
+        <v>246.2464349057208</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.5367554104176</v>
+        <v>336.9252358638412</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.6174580520484</v>
+        <v>304.7695642306351</v>
       </c>
       <c r="AD2" t="n">
-        <v>213804.5044741415</v>
+        <v>246246.4349057208</v>
       </c>
       <c r="AE2" t="n">
-        <v>292536.7554104176</v>
+        <v>336925.2358638413</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429175149685719e-06</v>
+        <v>5.00236020262195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.002314814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>264617.4580520485</v>
+        <v>304769.5642306351</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.2536835744853</v>
+        <v>244.4241306172847</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.3641685523769</v>
+        <v>334.4318787420129</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.0837987818567</v>
+        <v>302.5141696130645</v>
       </c>
       <c r="AD3" t="n">
-        <v>201253.6835744852</v>
+        <v>244424.1306172847</v>
       </c>
       <c r="AE3" t="n">
-        <v>275364.1685523769</v>
+        <v>334431.8787420129</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.450515160317986e-06</v>
+        <v>5.046305333513065e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.941550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>249083.7987818567</v>
+        <v>302514.1696130645</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.3850022317601</v>
+        <v>310.4302315468544</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.1114680134874</v>
+        <v>424.7443380176632</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.4566191364256</v>
+        <v>384.2073345296791</v>
       </c>
       <c r="AD2" t="n">
-        <v>265385.0022317601</v>
+        <v>310430.2315468544</v>
       </c>
       <c r="AE2" t="n">
-        <v>363111.4680134874</v>
+        <v>424744.3380176632</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147240065882114e-06</v>
+        <v>4.254077902709156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.627314814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>328456.6191364256</v>
+        <v>384207.3345296792</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.1547625558846</v>
+        <v>256.1146510164065</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.9112616194972</v>
+        <v>350.4273645014436</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.3379763001198</v>
+        <v>316.9830686614255</v>
       </c>
       <c r="AD3" t="n">
-        <v>211154.7625558846</v>
+        <v>256114.6510164065</v>
       </c>
       <c r="AE3" t="n">
-        <v>288911.2616194972</v>
+        <v>350427.3645014436</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4377120594005e-06</v>
+        <v>4.829556401185667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>261337.9763001198</v>
+        <v>316983.0686614256</v>
       </c>
     </row>
   </sheetData>
